--- a/biology/Botanique/Euryops/Euryops.xlsx
+++ b/biology/Botanique/Euryops/Euryops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euryops est un genre de plante à fleurs de la famille des Asteraceae comportant une centaine d'espèces[1]. Elles sont pour la plupart originaires de l'Afrique australe.
-Certaines espèces fournissent des plantes ornementales aux fleurs semblables aux marguerites[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euryops est un genre de plante à fleurs de la famille des Asteraceae comportant une centaine d'espèces. Elles sont pour la plupart originaires de l'Afrique australe.
+Certaines espèces fournissent des plantes ornementales aux fleurs semblables aux marguerites.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre Euryops dérive du grec eurys « grand » et ops « œil », évoquant le capitule.
 </t>
@@ -543,9 +557,11 @@
           <t>Caractéristique du genre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Euryops sont des arbustes au feuillage persistant et aux feuilles alternes[3]. Les inflorescences sont axillaires ou terminales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Euryops sont des arbustes au feuillage persistant et aux feuilles alternes. Les inflorescences sont axillaires ou terminales.
 L'involucre est formé d'une seule rangée de bractées. Le capitule radié est formé de fleurs ligulées périphériques, femelles, fertiles, avec une longue ligule (corolle) jaune ou orange, entourant un centre de fleurs tubulées, bisexuées, fertiles ou stériles, à corolle tubulaire. Le style est généralement bifide.
 </t>
         </is>
@@ -575,7 +591,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Euryops acraeus
 Euryops chrysanthemoides
